--- a/SimulationFramework/beam_data_test.xlsx
+++ b/SimulationFramework/beam_data_test.xlsx
@@ -32,6 +32,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Beam </t>
     </r>
@@ -54,6 +55,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Property </t>
     </r>
@@ -73,15 +75,16 @@
     <t xml:space="preserve">Cross section</t>
   </si>
   <si>
-    <t xml:space="preserve">NACA_2412.txt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t xml:space="preserve">Rectangular</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">t [% of c]</t>
     </r>
@@ -91,6 +94,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> use only for 'Rectangular' cross-section</t>
     </r>
@@ -102,6 +106,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">n</t>
     </r>
@@ -112,6 +117,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">elements</t>
     </r>
@@ -126,6 +132,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">m</t>
     </r>
@@ -136,6 +143,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -145,6 +153,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> [kg/m]</t>
     </r>
@@ -156,6 +165,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">m</t>
     </r>
@@ -166,6 +176,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -175,6 +186,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> [kg/m]</t>
     </r>
@@ -186,6 +198,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">c</t>
     </r>
@@ -196,6 +209,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -205,6 +219,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> [m]</t>
     </r>
@@ -216,6 +231,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">c</t>
     </r>
@@ -226,6 +242,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -235,6 +252,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> [m]</t>
     </r>
@@ -246,6 +264,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x</t>
     </r>
@@ -256,6 +275,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CM</t>
     </r>
@@ -265,6 +285,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> [% of c]</t>
     </r>
@@ -276,6 +297,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">y</t>
     </r>
@@ -286,6 +308,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CM</t>
     </r>
@@ -295,6 +318,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> [% of c]</t>
     </r>
@@ -306,6 +330,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">z</t>
     </r>
@@ -316,6 +341,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CM</t>
     </r>
@@ -325,6 +351,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> [% of c]</t>
     </r>
@@ -336,6 +363,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">a</t>
     </r>
@@ -346,6 +374,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ea,y</t>
     </r>
@@ -355,6 +384,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> [% of c/2]</t>
     </r>
@@ -366,6 +396,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">a</t>
     </r>
@@ -376,6 +407,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ea,z</t>
     </r>
@@ -385,6 +417,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> [% of c/2]</t>
     </r>
@@ -429,6 +462,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -451,6 +485,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -473,6 +508,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
@@ -480,6 +516,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -487,6 +524,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -598,7 +636,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topRight" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -644,13 +682,16 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -702,8 +743,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="7" t="n">
-        <f aca="false">-0.2/B6</f>
-        <v>-0.0125</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -756,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -829,7 +869,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>33944000</v>
+        <v>240000</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
@@ -853,7 +893,7 @@
       </c>
       <c r="B23" s="8" t="n">
         <f aca="false">B21/(2*(1+B22))</f>
-        <v>12760902.2556391</v>
+        <v>90225.5639097744</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>

--- a/SimulationFramework/beam_data_test.xlsx
+++ b/SimulationFramework/beam_data_test.xlsx
@@ -633,10 +633,10 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B2" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topRight" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/SimulationFramework/beam_data_test.xlsx
+++ b/SimulationFramework/beam_data_test.xlsx
@@ -636,7 +636,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B2" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="topRight" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topRight" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -869,7 +869,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>240000</v>
+        <v>24000</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="B23" s="8" t="n">
         <f aca="false">B21/(2*(1+B22))</f>
-        <v>90225.5639097744</v>
+        <v>9022.55639097744</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="7"/>

--- a/SimulationFramework/beam_data_test.xlsx
+++ b/SimulationFramework/beam_data_test.xlsx
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Cross section</t>
   </si>
   <si>
-    <t xml:space="preserve">Rectangular</t>
+    <t xml:space="preserve">NACA_0012.txt</t>
   </si>
   <si>
     <r>
@@ -569,7 +569,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -578,6 +578,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -594,11 +598,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -636,69 +640,67 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B2" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="topRight" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topRight" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="2" width="20.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="3" width="20.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="2" customFormat="true" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>5</v>
+      <c r="B5" s="2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="2" t="n">
         <v>16</v>
       </c>
       <c r="C6" s="7"/>
@@ -706,10 +708,10 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.75</v>
       </c>
       <c r="C7" s="7"/>
@@ -717,10 +719,10 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="7"/>
@@ -728,10 +730,10 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="7"/>
@@ -739,10 +741,10 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="7"/>
@@ -750,10 +752,10 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="7"/>
@@ -770,21 +772,21 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>0.5</v>
+      <c r="B12" s="2" t="n">
+        <v>0.25</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="7"/>
@@ -792,21 +794,21 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>0</v>
+      <c r="B14" s="2" t="n">
+        <v>-0.33</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="2" t="n">
         <v>-1</v>
       </c>
       <c r="C15" s="7"/>
@@ -814,10 +816,10 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="7"/>
@@ -825,10 +827,10 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C17" s="7"/>
@@ -836,10 +838,10 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="7"/>
@@ -847,152 +849,138 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>24000</v>
-      </c>
-      <c r="C21" s="8"/>
+        <v>8142800</v>
+      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="2" t="n">
         <v>0.33</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="8" t="n">
         <f aca="false">B21/(2*(1+B22))</f>
-        <v>9022.55639097744</v>
-      </c>
-      <c r="C23" s="8"/>
+        <v>3061203.0075188</v>
+      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="11"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="11"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="11"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="11"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="11"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="9"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="11"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/SimulationFramework/beam_data_test.xlsx
+++ b/SimulationFramework/beam_data_test.xlsx
@@ -637,9 +637,9 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B2" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -693,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -776,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -798,7 +798,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -869,7 +869,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>8142800</v>
+        <v>9982400</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="7"/>
@@ -891,10 +891,7 @@
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8" t="n">
-        <f aca="false">B21/(2*(1+B22))</f>
-        <v>3061203.0075188</v>
-      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
